--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2785.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2785.xlsx
@@ -354,7 +354,7 @@
         <v>2.433829758543852</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>2.366450138020823</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2785.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2785.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.169564278226722</v>
+        <v>1.253091096878052</v>
       </c>
       <c r="B1">
-        <v>2.433829758543852</v>
+        <v>1.756467223167419</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>3.163914442062378</v>
       </c>
       <c r="D1">
-        <v>2.366450138020823</v>
+        <v>3.788207054138184</v>
       </c>
       <c r="E1">
-        <v>1.231502951039538</v>
+        <v>1.307068586349487</v>
       </c>
     </row>
   </sheetData>
